--- a/tradingview/stochastic_rsi/last_line.xlsx
+++ b/tradingview/stochastic_rsi/last_line.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,25 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>dates</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>close</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>rsi</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>k</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>d</t>
         </is>
@@ -459,238 +464,1100 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>48767.83</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30-08-2021 03:00</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>59.09407883608083</v>
+        <v>51756.88</v>
       </c>
       <c r="D2" t="n">
+        <v>61.78407283622579</v>
+      </c>
+      <c r="E2" t="n">
         <v>98.840744</v>
       </c>
-      <c r="E2" t="n">
-        <v>82.945616</v>
+      <c r="F2" t="n">
+        <v>94.282957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>49239.22</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>23-08-2021 03:00</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>59.70955787678876</v>
+        <v>48767.83</v>
       </c>
       <c r="D3" t="n">
-        <v>85.167384</v>
+        <v>59.09407883608083</v>
       </c>
       <c r="E3" t="n">
-        <v>62.53402</v>
+        <v>98.840744</v>
+      </c>
+      <c r="F3" t="n">
+        <v>82.945616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>46973.82</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16-08-2021 03:00</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>57.74565255186767</v>
+        <v>49239.22</v>
       </c>
       <c r="D4" t="n">
-        <v>64.828722</v>
+        <v>59.70955787678876</v>
       </c>
       <c r="E4" t="n">
-        <v>40.513304</v>
+        <v>85.167384</v>
+      </c>
+      <c r="F4" t="n">
+        <v>62.53402</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>43794.37</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>09-08-2021 03:00</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>54.87939051107902</v>
+        <v>46973.82</v>
       </c>
       <c r="D5" t="n">
-        <v>37.605953</v>
+        <v>57.74565255186767</v>
       </c>
       <c r="E5" t="n">
-        <v>20.979067</v>
+        <v>64.828722</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40.513304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>39845.44</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>02-08-2021 03:00</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>51.04990161666586</v>
+        <v>43794.37</v>
       </c>
       <c r="D6" t="n">
-        <v>19.105236</v>
+        <v>54.87939051107902</v>
       </c>
       <c r="E6" t="n">
-        <v>8.875159</v>
+        <v>37.605953</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20.979067</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>35381.02</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>26-07-2021 03:00</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>46.26196291125007</v>
+        <v>39845.44</v>
       </c>
       <c r="D7" t="n">
-        <v>6.226012</v>
+        <v>51.04990161666586</v>
       </c>
       <c r="E7" t="n">
-        <v>3.095845</v>
+        <v>19.105236</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.875159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>31778.56</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>19-07-2021 03:00</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>42.01202701139543</v>
+        <v>35381.02</v>
       </c>
       <c r="D8" t="n">
-        <v>1.294228</v>
+        <v>46.26196291125007</v>
       </c>
       <c r="E8" t="n">
-        <v>2.005774</v>
+        <v>6.226012</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.095845</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>34258.99</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12-07-2021 03:00</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>44.24946892006943</v>
+        <v>31778.56</v>
       </c>
       <c r="D9" t="n">
-        <v>1.767296</v>
+        <v>42.01202701139543</v>
       </c>
       <c r="E9" t="n">
-        <v>3.56146</v>
+        <v>1.294228</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.005774</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>35286.51</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>05-07-2021 03:00</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>45.1749214861659</v>
+        <v>34258.99</v>
       </c>
       <c r="D10" t="n">
-        <v>2.955799</v>
+        <v>44.24946892006943</v>
       </c>
       <c r="E10" t="n">
-        <v>5.148933</v>
+        <v>1.767296</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.56146</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>34700.34</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>28-06-2021 03:00</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>44.56071794056482</v>
+        <v>35286.51</v>
       </c>
       <c r="D11" t="n">
-        <v>5.961284</v>
+        <v>45.1749214861659</v>
       </c>
       <c r="E11" t="n">
-        <v>6.203229</v>
+        <v>2.955799</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.148933</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>35600.16</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21-06-2021 03:00</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>45.28386041466813</v>
+        <v>34700.34</v>
       </c>
       <c r="D12" t="n">
-        <v>6.529717</v>
+        <v>44.56071794056482</v>
       </c>
       <c r="E12" t="n">
-        <v>4.860941</v>
+        <v>5.961284</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.203229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>39020.57</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14-06-2021 03:00</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>48.03536760643141</v>
+        <v>35600.16</v>
       </c>
       <c r="D13" t="n">
-        <v>6.118686</v>
+        <v>45.28386041466813</v>
       </c>
       <c r="E13" t="n">
-        <v>2.982008</v>
+        <v>6.529717</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.860941</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>35796.31</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>07-06-2021 03:00</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>45.11634513377612</v>
+        <v>39020.57</v>
       </c>
       <c r="D14" t="n">
-        <v>1.93442</v>
+        <v>48.03536760643141</v>
       </c>
       <c r="E14" t="n">
-        <v>3.360471</v>
+        <v>6.118686</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.982008</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>31-05-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>35796.31</v>
+      </c>
+      <c r="D15" t="n">
+        <v>45.11634513377612</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.93442</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.360471</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>24-05-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>35641.27</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D16" t="n">
         <v>44.9783409408916</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E16" t="n">
         <v>0.892919</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F16" t="n">
         <v>7.146765</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17-05-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>34655.25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>44.14899149770537</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.254074</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11.280227</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10-05-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>46431.5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>53.01037082185576</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13.293303</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10.875279</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>03-05-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>58240.84</v>
+      </c>
+      <c r="D19" t="n">
+        <v>65.19556726146118</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13.293303</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8.662419</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>26-04-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>56578.21</v>
+      </c>
+      <c r="D20" t="n">
+        <v>64.1172598365971</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6.03923</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.260024</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>19-04-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>49066.77</v>
+      </c>
+      <c r="D21" t="n">
+        <v>58.75678226247319</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.654723</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11.531707</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>12-04-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>56150.01</v>
+      </c>
+      <c r="D22" t="n">
+        <v>67.59949240369866</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12.086118</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14.512008</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>05-04-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>60002.43</v>
+      </c>
+      <c r="D23" t="n">
+        <v>73.16005032604113</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15.854279</v>
+      </c>
+      <c r="F23" t="n">
+        <v>16.889593</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>29-03-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>58202.01</v>
+      </c>
+      <c r="D24" t="n">
+        <v>72.16648006751403</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15.595628</v>
+      </c>
+      <c r="F24" t="n">
+        <v>18.166074</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22-03-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>55777.63</v>
+      </c>
+      <c r="D25" t="n">
+        <v>70.81562269394104</v>
+      </c>
+      <c r="E25" t="n">
+        <v>19.218871</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17.396748</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>15-03-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>57351.56</v>
+      </c>
+      <c r="D26" t="n">
+        <v>72.94997723999174</v>
+      </c>
+      <c r="E26" t="n">
+        <v>19.683722</v>
+      </c>
+      <c r="F26" t="n">
+        <v>19.942502</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>08-03-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>58968.31</v>
+      </c>
+      <c r="D27" t="n">
+        <v>75.1092304317874</v>
+      </c>
+      <c r="E27" t="n">
+        <v>13.28765</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26.82849</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01-03-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>50971.75</v>
+      </c>
+      <c r="D28" t="n">
+        <v>71.1931685255047</v>
+      </c>
+      <c r="E28" t="n">
+        <v>26.856134</v>
+      </c>
+      <c r="F28" t="n">
+        <v>38.893484</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>22-02-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>45135.66</v>
+      </c>
+      <c r="D29" t="n">
+        <v>67.75517241919638</v>
+      </c>
+      <c r="E29" t="n">
+        <v>40.341686</v>
+      </c>
+      <c r="F29" t="n">
+        <v>40.320205</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15-02-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>57408.57</v>
+      </c>
+      <c r="D30" t="n">
+        <v>88.34376613044329</v>
+      </c>
+      <c r="E30" t="n">
+        <v>49.48263</v>
+      </c>
+      <c r="F30" t="n">
+        <v>33.542306</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>08-02-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>48577.79</v>
+      </c>
+      <c r="D31" t="n">
+        <v>85.37439140111016</v>
+      </c>
+      <c r="E31" t="n">
+        <v>31.136298</v>
+      </c>
+      <c r="F31" t="n">
+        <v>28.84066</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01-02-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>38795.69</v>
+      </c>
+      <c r="D32" t="n">
+        <v>80.18123028712664</v>
+      </c>
+      <c r="E32" t="n">
+        <v>20.007989</v>
+      </c>
+      <c r="F32" t="n">
+        <v>39.939971</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>25-01-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33092.98</v>
+      </c>
+      <c r="D33" t="n">
+        <v>75.46535739508593</v>
+      </c>
+      <c r="E33" t="n">
+        <v>35.377691</v>
+      </c>
+      <c r="F33" t="n">
+        <v>63.663079</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>18-01-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>32259.9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>74.64701463732089</v>
+      </c>
+      <c r="E34" t="n">
+        <v>64.434234</v>
+      </c>
+      <c r="F34" t="n">
+        <v>85.20384900000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>11-01-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>35828.61</v>
+      </c>
+      <c r="D35" t="n">
+        <v>86.06598412405937</v>
+      </c>
+      <c r="E35" t="n">
+        <v>91.177313</v>
+      </c>
+      <c r="F35" t="n">
+        <v>97.059104</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>04-01-2021 03:00</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>38150.02</v>
+      </c>
+      <c r="D36" t="n">
+        <v>94.82806521744516</v>
+      </c>
+      <c r="E36" t="n">
+        <v>100</v>
+      </c>
+      <c r="F36" t="n">
+        <v>99.404202</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>28-12-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>33000.05</v>
+      </c>
+      <c r="D37" t="n">
+        <v>93.45555048071074</v>
+      </c>
+      <c r="E37" t="n">
+        <v>100</v>
+      </c>
+      <c r="F37" t="n">
+        <v>98.808404</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>21-12-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>26281.66</v>
+      </c>
+      <c r="D38" t="n">
+        <v>90.35496601410547</v>
+      </c>
+      <c r="E38" t="n">
+        <v>98.212605</v>
+      </c>
+      <c r="F38" t="n">
+        <v>97.489305</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>14-12-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>23455.52</v>
+      </c>
+      <c r="D39" t="n">
+        <v>88.16472086127597</v>
+      </c>
+      <c r="E39" t="n">
+        <v>98.212605</v>
+      </c>
+      <c r="F39" t="n">
+        <v>97.361802</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>07-12-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>19174.99</v>
+      </c>
+      <c r="D40" t="n">
+        <v>82.61102413818584</v>
+      </c>
+      <c r="E40" t="n">
+        <v>96.042703</v>
+      </c>
+      <c r="F40" t="n">
+        <v>97.23429899999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>30-11-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>19359.4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>84.1914490933417</v>
+      </c>
+      <c r="E41" t="n">
+        <v>97.83009699999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>98.553398</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>23-11-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>18184.99</v>
+      </c>
+      <c r="D42" t="n">
+        <v>82.17484954256231</v>
+      </c>
+      <c r="E42" t="n">
+        <v>97.83009699999999</v>
+      </c>
+      <c r="F42" t="n">
+        <v>99.27669899999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>16-11-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>18414.43</v>
+      </c>
+      <c r="D43" t="n">
+        <v>84.12155206222529</v>
+      </c>
+      <c r="E43" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" t="n">
+        <v>99.988456</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>09-11-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>15957</v>
+      </c>
+      <c r="D44" t="n">
+        <v>79.22737919285738</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" t="n">
+        <v>94.25639700000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>02-11-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>15475.1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>77.99217286130298</v>
+      </c>
+      <c r="E45" t="n">
+        <v>99.965368</v>
+      </c>
+      <c r="F45" t="n">
+        <v>82.202777</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>26-10-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>13761.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>72.61538812362072</v>
+      </c>
+      <c r="E46" t="n">
+        <v>82.803822</v>
+      </c>
+      <c r="F46" t="n">
+        <v>60.64344</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>19-10-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>13028.83</v>
+      </c>
+      <c r="D47" t="n">
+        <v>69.67383084968986</v>
+      </c>
+      <c r="E47" t="n">
+        <v>63.839139</v>
+      </c>
+      <c r="F47" t="n">
+        <v>41.682027</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>12-10-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>11503.14</v>
+      </c>
+      <c r="D48" t="n">
+        <v>61.72370926534439</v>
+      </c>
+      <c r="E48" t="n">
+        <v>35.28736</v>
+      </c>
+      <c r="F48" t="n">
+        <v>27.41896</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>05-10-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>11369.02</v>
+      </c>
+      <c r="D49" t="n">
+        <v>60.88671383948318</v>
+      </c>
+      <c r="E49" t="n">
+        <v>25.91958</v>
+      </c>
+      <c r="F49" t="n">
+        <v>21.600709</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>28-09-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10666.63</v>
+      </c>
+      <c r="D50" t="n">
+        <v>56.23251512386418</v>
+      </c>
+      <c r="E50" t="n">
+        <v>21.049941</v>
+      </c>
+      <c r="F50" t="n">
+        <v>16.792188</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>21-09-2020 03:00</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10774.25</v>
+      </c>
+      <c r="D51" t="n">
+        <v>57.20091239563952</v>
+      </c>
+      <c r="E51" t="n">
+        <v>17.832604</v>
+      </c>
+      <c r="F51" t="n">
+        <v>19.898114</v>
       </c>
     </row>
   </sheetData>
